--- a/input/EL/reg_fertility.xlsx
+++ b/input/EL/reg_fertility.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsEU\input\EL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU/input/EL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227B57F5-9973-4A1F-B607-B17799D1C4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1D346C-BAC9-B741-ADD0-965D15847A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="F1b" sheetId="4" r:id="rId2"/>
+    <sheet name="F1a" sheetId="5" r:id="rId1"/>
+    <sheet name="Info" sheetId="1" r:id="rId2"/>
+    <sheet name="F1b" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Description:</t>
   </si>
@@ -135,13 +136,16 @@
   </si>
   <si>
     <t>EL7</t>
+  </si>
+  <si>
+    <t>Dhe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -150,6 +154,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,15 +186,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F9D96142-D870-5142-8C0F-D2859E1C88A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,51 +528,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A13F30-22B3-054A-A25D-04515E3CF92A}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-1.9658875381585693E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.6312345539927151E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1.1828889899364998E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.7442327799468692E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.35302933071638515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.14643989603547861</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1.1828889899364998E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.18750309379931057</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.15455786365213553</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.42919776248276365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.48186314363830368</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.7442327799468692E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.15455786365213553</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.50907778618380339</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.73373494833229547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.59270779555611164</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.35302933071638515</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-0.42919776248276365</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.73373494833229547</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10.430772870143954</v>
       </c>
     </row>
   </sheetData>
@@ -568,17 +646,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -667,7 +798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -756,7 +887,7 @@
         <v>-3.9663523151975411E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -845,7 +976,7 @@
         <v>5.5080080120180949E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -934,7 +1065,7 @@
         <v>-2.1722664474051245E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1154,7 @@
         <v>-1.6318718934297427E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1243,7 @@
         <v>-2.6837228077656039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1332,7 @@
         <v>-1.2672323619137671E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1290,7 +1421,7 @@
         <v>5.1249243125068324E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +1510,7 @@
         <v>1.1090746764671963E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1599,7 @@
         <v>-0.13007543102893049</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1557,7 +1688,7 @@
         <v>-8.9659211830775298E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1646,7 +1777,7 @@
         <v>-0.12365913595962486</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1866,7 @@
         <v>-0.12010324502005787</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1955,7 @@
         <v>3.3982071577577308E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1913,7 +2044,7 @@
         <v>-2.3926891606796397E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2133,7 @@
         <v>1.2902044112103606E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2222,7 @@
         <v>-1.7279071540405588E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2180,7 +2311,7 @@
         <v>-5.2914730716581287E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2269,7 +2400,7 @@
         <v>-1.1072987439445792E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2358,7 +2489,7 @@
         <v>-2.5524059004928878E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2447,7 +2578,7 @@
         <v>-1.2881907874897628E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2536,7 +2667,7 @@
         <v>-5.7154068163518187E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2625,7 +2756,7 @@
         <v>-1.012253184009766E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2714,7 +2845,7 @@
         <v>-5.8191255290722596E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2803,7 +2934,7 @@
         <v>-1.5383268625603526E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2892,7 +3023,7 @@
         <v>5.1894903220002231E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2981,7 +3112,7 @@
         <v>8.9992031756071622E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
